--- a/spliced/falling/2023-03-25_17-56-13/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-13/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.0116064397990704</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.5697603225708008</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.878552436828613</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.078300476074219</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.002003637989982902</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.01257160693407047</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.01087340146303169</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-56-13/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-13/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.515034198760986</v>
+        <v>-1.231432914733887</v>
       </c>
       <c r="D2" t="n">
-        <v>3.09714412689209</v>
+        <v>2.921578645706177</v>
       </c>
       <c r="E2" t="n">
-        <v>1.813430547714233</v>
+        <v>1.135899901390076</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2413406467437743</v>
+        <v>-0.05018257871270176</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8782348728179935</v>
+        <v>0.03831957608461375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2379259061813353</v>
+        <v>-0.02618168391287326</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.8616123199462891</v>
+        <v>-1.530599117279053</v>
       </c>
       <c r="D3" t="n">
-        <v>2.827116727828979</v>
+        <v>3.089309453964233</v>
       </c>
       <c r="E3" t="n">
-        <v>2.906854152679444</v>
+        <v>1.274296164512634</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3042353224754335</v>
+        <v>-0.0003359749913214444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7414865946769711</v>
+        <v>0.002840522676706245</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07860002636909467</v>
+        <v>0.01902845310978596</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.119331359863281</v>
+        <v>-1.078460693359375</v>
       </c>
       <c r="D4" t="n">
-        <v>2.938467741012573</v>
+        <v>3.193733692169189</v>
       </c>
       <c r="E4" t="n">
-        <v>3.788225650787354</v>
+        <v>1.281612634658814</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5218927025794975</v>
+        <v>0.0197737082280218</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.713765501976017</v>
+        <v>0.003915645778179187</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0360715866088889</v>
+        <v>0.0108062067255378</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.191555976867676</v>
+        <v>-0.9324893951416016</v>
       </c>
       <c r="D5" t="n">
-        <v>2.632256746292114</v>
+        <v>2.998547315597534</v>
       </c>
       <c r="E5" t="n">
-        <v>4.186654567718506</v>
+        <v>0.8108012080192566</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3036916565895085</v>
+        <v>0.006835582219064174</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.991817789077758</v>
+        <v>0.01575421430170528</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7189944821596139</v>
+        <v>-0.01602910399436943</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.710879325866699</v>
+        <v>-1.057272911071777</v>
       </c>
       <c r="D6" t="n">
-        <v>1.845868825912476</v>
+        <v>2.989111185073853</v>
       </c>
       <c r="E6" t="n">
-        <v>3.84958028793335</v>
+        <v>0.8697453737258911</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3264341640472403</v>
+        <v>0.009694431573152461</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7089091062545771</v>
+        <v>0.04360967107117174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2337964496016506</v>
+        <v>-0.02225992940366261</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.593781471252441</v>
+        <v>-1.247255325317383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9911742210388184</v>
+        <v>3.032690763473511</v>
       </c>
       <c r="E7" t="n">
-        <v>4.50331974029541</v>
+        <v>0.9775734543800354</v>
       </c>
       <c r="F7" t="n">
-        <v>3.141985282897944</v>
+        <v>-0.006389650218188861</v>
       </c>
       <c r="G7" t="n">
-        <v>1.788967720866199</v>
+        <v>0.1472857224941257</v>
       </c>
       <c r="H7" t="n">
-        <v>1.509380774497982</v>
+        <v>-0.09550878420472185</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.942704677581787</v>
+        <v>-1.120566368103027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9004347324371338</v>
+        <v>3.040028095245361</v>
       </c>
       <c r="E8" t="n">
-        <v>5.645516872406006</v>
+        <v>0.9562293887138368</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9800599706172932</v>
+        <v>-0.0494189966470003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1253434419631962</v>
+        <v>0.3487124174833299</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5464250743389123</v>
+        <v>-0.1236696735024451</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.870916843414306</v>
+        <v>-1.322433471679688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8271392583847046</v>
+        <v>3.130712985992432</v>
       </c>
       <c r="E9" t="n">
-        <v>3.763989448547363</v>
+        <v>1.133776545524597</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0736092627048492</v>
+        <v>-0.1319224560260773</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5642867684364319</v>
+        <v>0.6216225624084474</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1644754707813263</v>
+        <v>0.00195476904511456</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.222605228424072</v>
+        <v>-1.53396463394165</v>
       </c>
       <c r="D10" t="n">
-        <v>8.015891075134277</v>
+        <v>3.08948278427124</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.287224769592285</v>
+        <v>1.223363161087036</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06891781449317926</v>
+        <v>-0.2252138006687165</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3265013670921365</v>
+        <v>0.7861163711547852</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1562654364109038</v>
+        <v>0.1145494534075265</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.32538223266602</v>
+        <v>-1.515034198760986</v>
       </c>
       <c r="D11" t="n">
-        <v>1.840011596679688</v>
+        <v>3.09714412689209</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.43991279602051</v>
+        <v>1.813430547714233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1324722367525109</v>
+        <v>-0.2413406467437743</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3363607311248777</v>
+        <v>0.8782348728179935</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4570737850666071</v>
+        <v>0.2379259061813353</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-10.02466678619385</v>
+        <v>-0.8616123199462891</v>
       </c>
       <c r="D12" t="n">
-        <v>2.735576868057251</v>
+        <v>2.827116727828979</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7851346135139465</v>
+        <v>2.906854152679444</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01224173843860671</v>
+        <v>-0.3042353224754335</v>
       </c>
       <c r="G12" t="n">
-        <v>0.501917414665225</v>
+        <v>0.7414865946769711</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1441641956567751</v>
+        <v>0.07860002636909467</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.655090808868408</v>
+        <v>-1.119331359863281</v>
       </c>
       <c r="D13" t="n">
-        <v>4.018677711486816</v>
+        <v>2.938467741012573</v>
       </c>
       <c r="E13" t="n">
-        <v>1.793249011039734</v>
+        <v>3.788225650787354</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1344208937883378</v>
+        <v>-0.5218927025794975</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3849489307403577</v>
+        <v>-0.713765501976017</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01353066369891175</v>
+        <v>0.0360715866088889</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.92861557006836</v>
+        <v>-1.191555976867676</v>
       </c>
       <c r="D14" t="n">
-        <v>2.929328203201294</v>
+        <v>2.632256746292114</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0398081243038177</v>
+        <v>4.186654567718506</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1894598573446278</v>
+        <v>-0.3036916565895085</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1872607469558727</v>
+        <v>-1.991817789077758</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08878926560282711</v>
+        <v>0.7189944821596139</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.3450803756713867</v>
+        <v>-1.710879325866699</v>
       </c>
       <c r="D15" t="n">
-        <v>2.857911348342896</v>
+        <v>1.845868825912476</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8647096157073975</v>
+        <v>3.84958028793335</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07626041717827303</v>
+        <v>-0.3264341640472403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2385795354843139</v>
+        <v>-0.7089091062545771</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02856405675411225</v>
+        <v>0.2337964496016506</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.3354158401489258</v>
+        <v>-2.593781471252441</v>
       </c>
       <c r="D16" t="n">
-        <v>5.716526508331299</v>
+        <v>0.9911742210388184</v>
       </c>
       <c r="E16" t="n">
-        <v>2.590144395828247</v>
+        <v>4.50331974029541</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0480750934034587</v>
+        <v>3.141985282897944</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01500285148620528</v>
+        <v>1.788967720866199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03880215823650406</v>
+        <v>1.509380774497982</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.9065876007080078</v>
+        <v>-2.942704677581787</v>
       </c>
       <c r="D17" t="n">
-        <v>2.264821529388428</v>
+        <v>0.9004347324371338</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5376818180084229</v>
+        <v>5.645516872406006</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000274888500570912</v>
+        <v>0.9800599706172932</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1048794555664065</v>
+        <v>0.1253434419631962</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01421483285725082</v>
+        <v>-0.5464250743389123</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.116541862487793</v>
+        <v>-2.870916843414306</v>
       </c>
       <c r="D18" t="n">
-        <v>4.219213008880615</v>
+        <v>0.8271392583847046</v>
       </c>
       <c r="E18" t="n">
-        <v>2.760595798492432</v>
+        <v>3.763989448547363</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01692707635462273</v>
+        <v>-0.0736092627048492</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1128940057754516</v>
+        <v>0.5642867684364319</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.08684671215713051</v>
+        <v>0.1644754707813263</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.9184532165527344</v>
+        <v>-1.222605228424072</v>
       </c>
       <c r="D19" t="n">
-        <v>2.742923021316528</v>
+        <v>8.015891075134277</v>
       </c>
       <c r="E19" t="n">
-        <v>0.531829297542572</v>
+        <v>-3.287224769592285</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0168904237449169</v>
+        <v>-0.06891781449317926</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1212872922420503</v>
+        <v>-0.3265013670921365</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0470977105200284</v>
+        <v>0.1562654364109038</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.7217302322387695</v>
+        <v>21.32538223266602</v>
       </c>
       <c r="D20" t="n">
-        <v>3.284558773040771</v>
+        <v>1.840011596679688</v>
       </c>
       <c r="E20" t="n">
-        <v>1.230929017066956</v>
+        <v>-17.43991279602051</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.00600480515509842</v>
+        <v>0.1324722367525109</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.05129435338079914</v>
+        <v>-0.3363607311248777</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00926071695983402</v>
+        <v>-0.4570737850666071</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-10.02466678619385</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.735576868057251</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7851346135139465</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.01224173843860671</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.501917414665225</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.1441641956567751</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.655090808868408</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.018677711486816</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.793249011039734</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1344208937883378</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3849489307403577</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01353066369891175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.92861557006836</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.929328203201294</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0398081243038177</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1894598573446278</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1872607469558727</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.08878926560282711</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3450803756713867</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.857911348342896</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8647096157073975</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.07626041717827303</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2385795354843139</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.02856405675411225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3354158401489258</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.716526508331299</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.590144395828247</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0480750934034587</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01500285148620528</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03880215823650406</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.9065876007080078</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.264821529388428</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5376818180084229</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000274888500570912</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.1048794555664065</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01421483285725082</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.116541862487793</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.219213008880615</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.760595798492432</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.01692707635462273</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.1128940057754516</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.08684671215713051</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.9184532165527344</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.742923021316528</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.531829297542572</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0168904237449169</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1212872922420503</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0470977105200284</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7217302322387695</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.284558773040771</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.230929017066956</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.00600480515509842</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.05129435338079914</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.00926071695983402</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>-0.5133705139160156</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>3.467156171798706</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>0.9949870109558104</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>0.004129448952153255</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>-0.005827654600143463</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>-0.0116064397990704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5697603225708008</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.878552436828613</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.078300476074219</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.002003637989982902</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.01257160693407047</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.01087340146303169</v>
       </c>
     </row>
   </sheetData>
